--- a/inst/extdata/rswap_observed_data.xlsx
+++ b/inst/extdata/rswap_observed_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mosh\Documents\GitHub\rswap\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mosh\Documents\GitHub\private\rswap\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0948EAFD-5F1D-4B43-AAF7-47E997231336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FD8CCA-9897-463C-B98F-C06BD2D1C3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B27E6F70-D2DF-477B-AFF1-D5ACD0F1102F}"/>
+    <workbookView xWindow="31185" yWindow="1500" windowWidth="21600" windowHeight="11220" xr2:uid="{B27E6F70-D2DF-477B-AFF1-D5ACD0F1102F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,15 +49,6 @@
     <t>WC_70</t>
   </si>
   <si>
-    <t>H_10</t>
-  </si>
-  <si>
-    <t>H_20</t>
-  </si>
-  <si>
-    <t>H_30</t>
-  </si>
-  <si>
     <t>DRAINAGE</t>
   </si>
   <si>
@@ -71,6 +62,15 @@
   </si>
   <si>
     <t xml:space="preserve"># (do not delete this row) Use same units and variable names as SWAP please. Depth of measurement is entered by " _" prefix followed by positive integer of depth in centimeters -- This is not required, see DRAINAGE. You can add, edit, and remove any of these columns. DATE is required. </t>
+  </si>
+  <si>
+    <t>H_15</t>
+  </si>
+  <si>
+    <t>H_40</t>
+  </si>
+  <si>
+    <t>H_70</t>
   </si>
 </sst>
 </file>
@@ -424,7 +424,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -435,7 +435,7 @@
   <dimension ref="A1:K170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -445,7 +445,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -462,25 +462,25 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
